--- a/1.xlsx
+++ b/1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>r2</t>
+          <t>Accuracy</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>Precsion</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
         </is>
       </c>
     </row>
@@ -466,46 +471,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ridge Regression, Lasso Regression</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8026537370055732</v>
+        <v>0.73</v>
       </c>
       <c r="E2" t="n">
-        <v>4.252960206281177</v>
+        <v>0.7047</v>
       </c>
       <c r="F2" t="n">
-        <v>3.244859046018557</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Ridge Regression</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7971125841620424</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.31225486700841</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.268414759925253</v>
+        <v>0.7393999999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.7216</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -480,16 +480,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.73</v>
+        <v>0.7533</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7047</v>
+        <v>0.7151999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7393999999999999</v>
+        <v>0.7958</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7216</v>
+        <v>0.7533</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,22 +446,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Accuracy</t>
+          <t>R2 Score</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Precsion</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>F1 Score</t>
+          <t>MAE</t>
         </is>
       </c>
     </row>
@@ -471,25 +466,46 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Logistic Regression</t>
+          <t>Linear Regression</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Logistic Regression</t>
+          <t>Ridge Regression, Lasso Regression</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7533</v>
+        <v>0.8048</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7151999999999999</v>
+        <v>4.2296</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7958</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.7533</v>
+        <v>3.2147</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Linear Regression</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ridge Regression</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7963</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.3211</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.2735</v>
       </c>
     </row>
   </sheetData>
